--- a/LinkedIn_Connect/LinkedIn_Links.xlsx
+++ b/LinkedIn_Connect/LinkedIn_Links.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dhamma\UiPath\RPA\LinkedIn_Connect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nainksha\RPA\uipath_automation\LinkedIn_Connect\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4234C79-E396-4D3D-95D1-A17FE9A90BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="2895" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
   <si>
     <t>LinkedIn_Links</t>
   </si>
@@ -206,102 +207,6 @@
   </si>
   <si>
     <t>Linkedin</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dr-swaminathan-gayathri-a61141153/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sharad-panicker-7b902b34/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nitish-s-kumar-70999a14/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/carlo-k-4485aa1/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rachitkr/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pradiptakishore/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sudhin-bopaiah-68aa31128/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mary-eranackal-b4355b48/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/lipsa-nayak-9492aa76/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/taniya-chopra-133834126/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vinay-j-69000a8/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/bhupal-kumar-%E2%9C%88%EF%B8%8F-82168196/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/upasana-pradhan-58a0a056/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/swarup-kumar-rout-61883075/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kumar-govindraj/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pooja-majage/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aloke-roy-63a2b82/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/gopalkrishna-jyothi-5775664/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sri-harsha-0360aa21/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/taahaa07/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kaushiksrinivasaraghavan/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/phani-kiran-v-00b622a0/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sivaprasad-kt-4a5986b9/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vinay-honnegowda-6b832b173/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/akhshaya-paranikumar-007/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pynkhlain/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/suman-saurav-1a21a549/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mayur-moon-62b01515/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/paul-perumattathu/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shubham-jena-630135120/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vipula-junghare-53987068/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rajeev-srisai-669a1859/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/atul-saurav/</t>
@@ -454,7 +359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +422,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -829,927 +734,767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A2:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="66.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="66.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="66.140625" style="1"/>
+    <col min="1" max="1" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="66.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A82"/>
+  <autoFilter ref="A1:A50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>57</v>
       </c>
@@ -1760,179 +1505,179 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.linkedin.com/in/nikhil-wadgaonkar-b910144/"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.linkedin.com/in/sunil-savanur-3ab62b6/"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.linkedin.com/in/prashant-jain-ba39b32a/"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.linkedin.com/in/jitendra-anand-04995a9b/"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.linkedin.com/in/manish-agrawal-a51a711/"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.linkedin.com/in/niranjanpol/"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.linkedin.com/in/hemant-mane-8950326/"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.linkedin.com/in/hariz-hasan-b27a17a7/"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.linkedin.com/in/karthikeyan-k-798b2b1a/"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.linkedin.com/in/nikhil-wadgaonkar-b910144/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.linkedin.com/in/sunil-savanur-3ab62b6/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.linkedin.com/in/prashant-jain-ba39b32a/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.linkedin.com/in/jitendra-anand-04995a9b/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.linkedin.com/in/manish-agrawal-a51a711/" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.linkedin.com/in/niranjanpol/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.linkedin.com/in/hemant-mane-8950326/" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.linkedin.com/in/hariz-hasan-b27a17a7/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.linkedin.com/in/karthikeyan-k-798b2b1a/" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_Connect/LinkedIn_Links.xlsx
+++ b/LinkedIn_Connect/LinkedIn_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nainksha\RPA\uipath_automation\LinkedIn_Connect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4234C79-E396-4D3D-95D1-A17FE9A90BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE63B0-4DE6-4449-AD23-2262BF36F091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>LinkedIn_Links</t>
   </si>
@@ -209,111 +209,6 @@
     <t>Linkedin</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/atul-saurav/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/arunraj-r/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sushma-neelappa-2b3683128/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shibin-cholapilakkal-ab926b121/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abhilash-kshtriya-8a513082/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/komal-desai-79b70691/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kiran-kumar-n-813938b2/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jayashree-l-57a3a1ab/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/roopini-balasubramaniam-179462b2/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/maniikandang/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ashmin-babu-08377a13b/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sabita-singha-732a8812/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vidya-singh-03193522/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/saurabh-5749/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aishwarya-krishna-028035143/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/chandra-shekhar-735a304/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sumith-cs-1a10807b/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aditya-jain-6733b621/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vikas-sharma-61b3912/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/arunabh-bansal-2b471413/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ahsan-shaik-67281516b/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/manasa-krishna-6a095057/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vishakha-raj-2000aa125/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/harish-v-89420523/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pallavisinghal/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kumar-uttam-25559818/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ajay-mehra-247238163/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jagmohan-singh-6047a834/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ashish-saraf-bb39a75/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nisha-vishwa-32b62413/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sandeep-sharma-84a52123/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rekha-manocha-5a974924/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/manish-patwari-02076b7a/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/saurabh-bajaj-a1387a97/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/akash-mundwaik-b28224a0/</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/ved-sharma-8b837011b/</t>
   </si>
   <si>
@@ -354,6 +249,93 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/vishal-singh-b0466377/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/venkat-hds-92a5b39/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/malay-bhattacharjee-34324b44/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/raghuram-krishnan-0743101/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sushim-mukherjee-62aa3238/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srini-rao-5691418/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jayant-gusain-8b56b37/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chandru-dhinaharan-0280b518/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hari-krishnan-abb659a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/smita-h-204676194/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karthikeya-u-490196175/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/zuber-sheikh-442b0138/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sujith-kv-bb04a415/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sai-deshmukh-a01a5a165/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ranjith-b-a5596081/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anshumakkar/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mukkavilli-srinivas-27700190/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/salman-sayyed-21284912b/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/prasanna-kumar-5166491/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suvendra-mishra-ab9017122/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sunil-mishra-1a00b024/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/surajit-choudhury-46aaab22/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tejpal-patil-81012943/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anji-reddy-kandivada-9a6829185/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anuradhathequeen/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vipul-savaliya-3468393b/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/prasanna-clsmate-hitachi-4a298610/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/prakash-khwairakpam-a6a90322/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepthi-chunduru-a1bb9613/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/siddhant-sarangi-02265bb6/</t>
   </si>
 </sst>
 </file>
@@ -389,10 +371,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A2:XFD33"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="66.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -754,251 +737,221 @@
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>74</v>
+      <c r="A17" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>88</v>
+      <c r="A31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
+      <c r="A32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>90</v>
+      <c r="A33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>91</v>
+      <c r="A34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>92</v>
+      <c r="A35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>93</v>
+      <c r="A36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>96</v>
+      <c r="A39" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>97</v>
+      <c r="A40" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>98</v>
+      <c r="A41" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>99</v>
+      <c r="A42" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>100</v>
+      <c r="A43" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>107</v>
+      <c r="A44" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A44" xr:uid="{9767CA98-5A7C-45B6-88D2-967A4FF6A0D4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/LinkedIn_Connect/LinkedIn_Links.xlsx
+++ b/LinkedIn_Connect/LinkedIn_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nainksha\RPA\uipath_automation\LinkedIn_Connect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C9771D-4E5F-4C70-8462-F741011CF683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3181ABCD-498F-4390-8272-DD26C0C55403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,48 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>LinkedIn_Links</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sreebalaji/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/bala-bharadvaj-0400871/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rajni-singh-50a1825/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ashwani-bhargava-40975990/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mohemmed-ansari-45572427/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/amitabh1kumar/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dr-akhil-prasad-9a6a5b4/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ravi-8b78baa9/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/surendra-ahuja-103a7369/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/michael-koch-4b02635/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/faizi-mohsini-b10a5027/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/salil-gupte-0a7bb86/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ritu-sandhu-sharma-b3664817/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/happy-mohanty-7b52115/</t>
@@ -678,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A130"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="66.109375" defaultRowHeight="18.75" customHeight="1"/>
@@ -697,11 +658,11 @@
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -751,67 +712,67 @@
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -821,7 +782,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -831,7 +792,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -846,12 +807,12 @@
       </c>
     </row>
     <row r="32" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -886,7 +847,7 @@
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -911,7 +872,7 @@
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -946,12 +907,12 @@
       </c>
     </row>
     <row r="52" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -966,7 +927,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -991,7 +952,7 @@
       </c>
     </row>
     <row r="61" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1011,7 +972,7 @@
       </c>
     </row>
     <row r="65" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1026,12 +987,12 @@
       </c>
     </row>
     <row r="68" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1056,7 +1017,7 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1086,12 +1047,12 @@
       </c>
     </row>
     <row r="80" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1101,69 +1062,43 @@
       </c>
     </row>
     <row r="83" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A89" s="6"/>
     </row>
     <row r="90" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A91" s="6"/>
     </row>
     <row r="92" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A94" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="A95" s="6"/>
     </row>
     <row r="96" spans="1:1" ht="18.75" customHeight="1">
       <c r="A96" s="6"/>
@@ -1231,143 +1166,91 @@
     <row r="117" spans="1:1" ht="18.75" customHeight="1">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A118" s="6"/>
-    </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A119" s="6"/>
-    </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A120" s="6"/>
-    </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A121" s="6"/>
-    </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A122" s="6"/>
-    </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A123" s="6"/>
-    </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A124" s="6"/>
-    </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A125" s="6"/>
-    </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A126" s="6"/>
-    </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A127" s="6"/>
-    </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A128" s="6"/>
-    </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A129" s="6"/>
-    </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A130" s="6"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{A6D4819F-1B16-4109-B817-6E7F53CAC052}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{A0B1F1A6-04D8-47D8-AA40-ECFA50A7D93F}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{B9625046-6693-47FD-A8E0-FD7A87ECEDFD}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{95D55870-FAB7-413C-8800-4315468D6AE2}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{4AADED4D-10C2-418D-8CF7-EBE8C7335E62}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{CDCCEB06-1FC1-40F2-9C4A-00AF0E99AD6A}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{99E6F72C-B3A5-45FB-BF7F-32E3CB04CF02}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{0C4F27B3-0F37-4BF9-B8AC-E5029E9EF40B}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{3F9FCC95-54F9-44D3-9567-180452A57A6F}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{ECD6ABBB-E3C0-4710-AE75-2895190D3615}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{A98444C2-5186-49A9-A9B9-4803D62AE784}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{B38C5485-2B3D-47A7-95EB-96342EC050F5}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{A78BA3C2-5E5C-4AA8-8967-DDCDB992450F}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{2ED6477F-0688-4D70-9365-BC7C4E376E82}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{4E965D07-00A3-4210-A3BD-0610EC11A2A9}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{AD3154FD-4E59-4F6A-AF7A-0BD20636047C}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{C83CACB8-67C6-4F79-9BDF-1044B79921D5}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{D43AE3EF-E3DA-41C8-AFC4-E5349EC8B5C5}"/>
-    <hyperlink ref="A21" r:id="rId19" xr:uid="{4BB1437E-9B8A-40C0-B9C6-4EFE0F984E0C}"/>
-    <hyperlink ref="A22" r:id="rId20" xr:uid="{D6BE7778-74BB-4963-ABA9-ADD3BC183450}"/>
-    <hyperlink ref="A23" r:id="rId21" xr:uid="{5B12592E-5270-4F77-A890-6AC575B216BE}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{5EDFA56F-BCE8-4595-8022-78A9EC20F81C}"/>
-    <hyperlink ref="A25" r:id="rId23" xr:uid="{8F9FB0A6-1066-4016-99F3-F077C1A61B72}"/>
-    <hyperlink ref="A26" r:id="rId24" xr:uid="{ECCE968F-15BA-40FE-84E4-AA690F0243C3}"/>
-    <hyperlink ref="A27" r:id="rId25" xr:uid="{A7D770FF-8719-4845-B12A-369B078A57AF}"/>
-    <hyperlink ref="A28" r:id="rId26" xr:uid="{B8E2B792-248D-4E06-A44A-37FB0751C926}"/>
-    <hyperlink ref="A29" r:id="rId27" xr:uid="{33FE71A4-3055-4512-9648-835FF72B73A0}"/>
-    <hyperlink ref="A30" r:id="rId28" xr:uid="{CB5A3C4C-13D9-4B24-B195-210ED4FBE9DD}"/>
-    <hyperlink ref="A31" r:id="rId29" xr:uid="{3AC92931-509C-42A2-B8B3-B8E9825C6152}"/>
-    <hyperlink ref="A32" r:id="rId30" xr:uid="{D481EA02-ABB2-477A-B879-64A8985E8B70}"/>
-    <hyperlink ref="A33" r:id="rId31" xr:uid="{2BA13EA5-BEF4-4BD6-9DC5-1712C7F0D6AD}"/>
-    <hyperlink ref="A34" r:id="rId32" xr:uid="{A1CC8ACA-57E9-426C-AD55-3D98FB8F4A3C}"/>
-    <hyperlink ref="A35" r:id="rId33" xr:uid="{1D7C8697-430A-4635-98F7-6C07C74C047A}"/>
-    <hyperlink ref="A36" r:id="rId34" xr:uid="{15CFAEC5-E79E-4A81-BA48-14FC39B0936A}"/>
-    <hyperlink ref="A37" r:id="rId35" xr:uid="{442ADA00-59A2-4E20-A46E-763B9C9B3C61}"/>
-    <hyperlink ref="A38" r:id="rId36" xr:uid="{780A9EF4-0D73-4CA9-9D8C-044E7EA952B6}"/>
-    <hyperlink ref="A39" r:id="rId37" xr:uid="{BCE3420B-4685-430C-BF85-F07AF758B484}"/>
-    <hyperlink ref="A40" r:id="rId38" xr:uid="{57291359-7B98-4B4C-8536-8EB7441B14A0}"/>
-    <hyperlink ref="A41" r:id="rId39" xr:uid="{9D67495D-89E1-4FDD-99B2-CC69FB31AF9E}"/>
-    <hyperlink ref="A42" r:id="rId40" xr:uid="{A226A6D0-E373-442F-AB5F-E0B292A02A8A}"/>
-    <hyperlink ref="A43" r:id="rId41" xr:uid="{41817B1D-9404-48C4-B75D-F3D8B9E0AD1D}"/>
-    <hyperlink ref="A44" r:id="rId42" xr:uid="{EB71C670-C4CE-4398-BDE7-77300FD16A0D}"/>
-    <hyperlink ref="A45" r:id="rId43" xr:uid="{D4C6CE7D-0BC7-48E8-ADDB-23A197EACE2E}"/>
-    <hyperlink ref="A46" r:id="rId44" xr:uid="{44B8E59E-0510-4D97-870C-C3C231B24295}"/>
-    <hyperlink ref="A47" r:id="rId45" xr:uid="{506D721A-9121-4CE4-BDE2-6298F5AC0A80}"/>
-    <hyperlink ref="A48" r:id="rId46" xr:uid="{3705B74A-ADF1-4299-9614-AA3121DAA70E}"/>
-    <hyperlink ref="A49" r:id="rId47" xr:uid="{BEAD36FD-1FCD-4EB6-B097-565D30DEEE06}"/>
-    <hyperlink ref="A50" r:id="rId48" xr:uid="{426CE7E4-A72D-4063-BD29-E92B5F2639B4}"/>
-    <hyperlink ref="A51" r:id="rId49" xr:uid="{D42F1856-FFB3-4C86-AB39-3C7E6526AAD3}"/>
-    <hyperlink ref="A52" r:id="rId50" xr:uid="{74522C41-48D1-4AF6-A507-54A73C6E8B60}"/>
-    <hyperlink ref="A53" r:id="rId51" xr:uid="{FD599B93-4AD7-40AE-8E60-8B8214FB0CA9}"/>
-    <hyperlink ref="A54" r:id="rId52" xr:uid="{BC65FEAA-46EB-44A4-941A-1A1ACE394565}"/>
-    <hyperlink ref="A55" r:id="rId53" xr:uid="{BDE6EB0D-79F9-44D0-8443-3D7CB8C14462}"/>
-    <hyperlink ref="A56" r:id="rId54" xr:uid="{CAC9B4DB-E9A6-4438-B269-D09E1BC8548F}"/>
-    <hyperlink ref="A57" r:id="rId55" xr:uid="{DDFA5ABF-AE8F-49FA-A3B7-21A4DE9ED7F4}"/>
-    <hyperlink ref="A58" r:id="rId56" xr:uid="{BBBA4BAB-6646-4FEC-9A4F-4C76BDB17FC1}"/>
-    <hyperlink ref="A59" r:id="rId57" xr:uid="{451C84BC-237E-4282-87A3-46FBC0F6D86D}"/>
-    <hyperlink ref="A60" r:id="rId58" xr:uid="{2F75B136-F1C2-4C12-B624-31ECE87D8A47}"/>
-    <hyperlink ref="A61" r:id="rId59" xr:uid="{CDA32D37-0E6E-4DB6-8996-1391D6B823AF}"/>
-    <hyperlink ref="A62" r:id="rId60" xr:uid="{A8E3D0EC-CE2B-49A6-825B-9F3A98A84902}"/>
-    <hyperlink ref="A63" r:id="rId61" xr:uid="{91BE7A6B-AB8E-4217-9051-99D643CFB8B9}"/>
-    <hyperlink ref="A64" r:id="rId62" xr:uid="{66C6D3CB-1799-4DC3-BA4B-9F2067186376}"/>
-    <hyperlink ref="A65" r:id="rId63" xr:uid="{967DFBB0-D1D8-4869-8CAD-65D686C4C122}"/>
-    <hyperlink ref="A66" r:id="rId64" xr:uid="{BE4394CD-4739-4374-8B48-AE4A22F6EBA8}"/>
-    <hyperlink ref="A67" r:id="rId65" xr:uid="{70FD45C9-805A-4576-B677-EFC5E8BCBEB0}"/>
-    <hyperlink ref="A68" r:id="rId66" xr:uid="{E0A82E61-FA34-4A2F-88C1-1D90A6B43CA9}"/>
-    <hyperlink ref="A69" r:id="rId67" xr:uid="{16E2E0B9-865F-47A9-A2DF-60DC29575AA3}"/>
-    <hyperlink ref="A70" r:id="rId68" xr:uid="{27711C84-8F4E-4452-8FCF-A565AFA74D4B}"/>
-    <hyperlink ref="A71" r:id="rId69" xr:uid="{062B4421-F4D8-4DD2-90E7-81C270D8DB40}"/>
-    <hyperlink ref="A72" r:id="rId70" xr:uid="{5515994B-B7C3-45F0-ACAA-B4F27271573A}"/>
-    <hyperlink ref="A73" r:id="rId71" xr:uid="{36EEE2B9-2129-4E3E-86EB-D45FF5CD0362}"/>
-    <hyperlink ref="A74" r:id="rId72" xr:uid="{8DC9732E-558E-4A1A-B05E-23B317DB8187}"/>
-    <hyperlink ref="A75" r:id="rId73" xr:uid="{DE39333C-BED3-46A7-A6C3-E74790E4838A}"/>
-    <hyperlink ref="A76" r:id="rId74" xr:uid="{EF628698-ACEB-4818-8438-8AE9DBE4E126}"/>
-    <hyperlink ref="A77" r:id="rId75" xr:uid="{A5E3A352-1658-4385-AA61-C5534A3A9587}"/>
-    <hyperlink ref="A78" r:id="rId76" xr:uid="{4AE2E7BA-0779-480A-9E10-833E8BEE6176}"/>
-    <hyperlink ref="A79" r:id="rId77" xr:uid="{B3B16C79-E44A-4AE2-B5C9-1EFD3F70716F}"/>
-    <hyperlink ref="A80" r:id="rId78" xr:uid="{03DA74CC-C5B3-4A14-A92E-53593A6ED634}"/>
-    <hyperlink ref="A81" r:id="rId79" xr:uid="{292707FA-9363-4D5D-85B0-DE717207FB57}"/>
-    <hyperlink ref="A82" r:id="rId80" xr:uid="{762A6932-B76D-4288-AAA5-AD7B947816CD}"/>
-    <hyperlink ref="A83" r:id="rId81" xr:uid="{A7A1FE0D-E7F4-4EAE-9CF9-CAFF7CD89E4B}"/>
-    <hyperlink ref="A84" r:id="rId82" xr:uid="{390820E8-74CF-4356-A8B3-BCE3EF7CD95D}"/>
-    <hyperlink ref="A85" r:id="rId83" xr:uid="{8327DA18-AD6F-40E6-ACEE-D696E19D77BE}"/>
-    <hyperlink ref="A86" r:id="rId84" xr:uid="{FB7730C5-19E4-46CB-B430-BA67FB7A8BF6}"/>
-    <hyperlink ref="A87" r:id="rId85" xr:uid="{5C886BAE-5C7E-43DC-9F0F-6D2E48017393}"/>
-    <hyperlink ref="A88" r:id="rId86" xr:uid="{DD617D6F-76F1-4B6B-A91A-BD297C6E5B2F}"/>
-    <hyperlink ref="A89" r:id="rId87" xr:uid="{149414E2-2F48-42D0-A11E-07B59A54E26C}"/>
-    <hyperlink ref="A90" r:id="rId88" xr:uid="{93D0BD43-2609-492E-AD0E-DE9EAC41013B}"/>
-    <hyperlink ref="A91" r:id="rId89" xr:uid="{6AAE379F-5B4B-4BAC-A622-2C0B9A6D27C8}"/>
-    <hyperlink ref="A92" r:id="rId90" xr:uid="{8E61AF1B-D8B7-4E8E-A65E-A37974FCCEDE}"/>
-    <hyperlink ref="A93" r:id="rId91" xr:uid="{0D32D76B-A1CC-4E22-BFB0-1657FDF52326}"/>
-    <hyperlink ref="A94" r:id="rId92" xr:uid="{88E2535D-E2EA-4BB4-B2A8-61F8D7CC7094}"/>
-    <hyperlink ref="A95" r:id="rId93" xr:uid="{B60EF477-38A6-4A80-BF86-457AA885F7D9}"/>
-    <hyperlink ref="A2" r:id="rId94" xr:uid="{A57B20CD-6386-4B60-9944-587A675D840D}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{2ED6477F-0688-4D70-9365-BC7C4E376E82}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{4E965D07-00A3-4210-A3BD-0610EC11A2A9}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{AD3154FD-4E59-4F6A-AF7A-0BD20636047C}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{C83CACB8-67C6-4F79-9BDF-1044B79921D5}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{D43AE3EF-E3DA-41C8-AFC4-E5349EC8B5C5}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{4BB1437E-9B8A-40C0-B9C6-4EFE0F984E0C}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{D6BE7778-74BB-4963-ABA9-ADD3BC183450}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{5B12592E-5270-4F77-A890-6AC575B216BE}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{5EDFA56F-BCE8-4595-8022-78A9EC20F81C}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{8F9FB0A6-1066-4016-99F3-F077C1A61B72}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{ECCE968F-15BA-40FE-84E4-AA690F0243C3}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{A7D770FF-8719-4845-B12A-369B078A57AF}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{B8E2B792-248D-4E06-A44A-37FB0751C926}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{33FE71A4-3055-4512-9648-835FF72B73A0}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{CB5A3C4C-13D9-4B24-B195-210ED4FBE9DD}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{3AC92931-509C-42A2-B8B3-B8E9825C6152}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{D481EA02-ABB2-477A-B879-64A8985E8B70}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{2BA13EA5-BEF4-4BD6-9DC5-1712C7F0D6AD}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{A1CC8ACA-57E9-426C-AD55-3D98FB8F4A3C}"/>
+    <hyperlink ref="A22" r:id="rId20" xr:uid="{1D7C8697-430A-4635-98F7-6C07C74C047A}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{15CFAEC5-E79E-4A81-BA48-14FC39B0936A}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{442ADA00-59A2-4E20-A46E-763B9C9B3C61}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{780A9EF4-0D73-4CA9-9D8C-044E7EA952B6}"/>
+    <hyperlink ref="A26" r:id="rId24" xr:uid="{BCE3420B-4685-430C-BF85-F07AF758B484}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{57291359-7B98-4B4C-8536-8EB7441B14A0}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{9D67495D-89E1-4FDD-99B2-CC69FB31AF9E}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{A226A6D0-E373-442F-AB5F-E0B292A02A8A}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{41817B1D-9404-48C4-B75D-F3D8B9E0AD1D}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{EB71C670-C4CE-4398-BDE7-77300FD16A0D}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{D4C6CE7D-0BC7-48E8-ADDB-23A197EACE2E}"/>
+    <hyperlink ref="A33" r:id="rId31" xr:uid="{44B8E59E-0510-4D97-870C-C3C231B24295}"/>
+    <hyperlink ref="A34" r:id="rId32" xr:uid="{506D721A-9121-4CE4-BDE2-6298F5AC0A80}"/>
+    <hyperlink ref="A35" r:id="rId33" xr:uid="{3705B74A-ADF1-4299-9614-AA3121DAA70E}"/>
+    <hyperlink ref="A36" r:id="rId34" xr:uid="{BEAD36FD-1FCD-4EB6-B097-565D30DEEE06}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{426CE7E4-A72D-4063-BD29-E92B5F2639B4}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{D42F1856-FFB3-4C86-AB39-3C7E6526AAD3}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{74522C41-48D1-4AF6-A507-54A73C6E8B60}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{FD599B93-4AD7-40AE-8E60-8B8214FB0CA9}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{BC65FEAA-46EB-44A4-941A-1A1ACE394565}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{BDE6EB0D-79F9-44D0-8443-3D7CB8C14462}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{CAC9B4DB-E9A6-4438-B269-D09E1BC8548F}"/>
+    <hyperlink ref="A44" r:id="rId42" xr:uid="{DDFA5ABF-AE8F-49FA-A3B7-21A4DE9ED7F4}"/>
+    <hyperlink ref="A45" r:id="rId43" xr:uid="{BBBA4BAB-6646-4FEC-9A4F-4C76BDB17FC1}"/>
+    <hyperlink ref="A46" r:id="rId44" xr:uid="{451C84BC-237E-4282-87A3-46FBC0F6D86D}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{2F75B136-F1C2-4C12-B624-31ECE87D8A47}"/>
+    <hyperlink ref="A48" r:id="rId46" xr:uid="{CDA32D37-0E6E-4DB6-8996-1391D6B823AF}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{A8E3D0EC-CE2B-49A6-825B-9F3A98A84902}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{91BE7A6B-AB8E-4217-9051-99D643CFB8B9}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{66C6D3CB-1799-4DC3-BA4B-9F2067186376}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{967DFBB0-D1D8-4869-8CAD-65D686C4C122}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{BE4394CD-4739-4374-8B48-AE4A22F6EBA8}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{70FD45C9-805A-4576-B677-EFC5E8BCBEB0}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{E0A82E61-FA34-4A2F-88C1-1D90A6B43CA9}"/>
+    <hyperlink ref="A56" r:id="rId54" xr:uid="{16E2E0B9-865F-47A9-A2DF-60DC29575AA3}"/>
+    <hyperlink ref="A57" r:id="rId55" xr:uid="{27711C84-8F4E-4452-8FCF-A565AFA74D4B}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{062B4421-F4D8-4DD2-90E7-81C270D8DB40}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{5515994B-B7C3-45F0-ACAA-B4F27271573A}"/>
+    <hyperlink ref="A60" r:id="rId58" xr:uid="{36EEE2B9-2129-4E3E-86EB-D45FF5CD0362}"/>
+    <hyperlink ref="A61" r:id="rId59" xr:uid="{8DC9732E-558E-4A1A-B05E-23B317DB8187}"/>
+    <hyperlink ref="A62" r:id="rId60" xr:uid="{DE39333C-BED3-46A7-A6C3-E74790E4838A}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{EF628698-ACEB-4818-8438-8AE9DBE4E126}"/>
+    <hyperlink ref="A64" r:id="rId62" xr:uid="{A5E3A352-1658-4385-AA61-C5534A3A9587}"/>
+    <hyperlink ref="A65" r:id="rId63" xr:uid="{4AE2E7BA-0779-480A-9E10-833E8BEE6176}"/>
+    <hyperlink ref="A66" r:id="rId64" xr:uid="{B3B16C79-E44A-4AE2-B5C9-1EFD3F70716F}"/>
+    <hyperlink ref="A67" r:id="rId65" xr:uid="{03DA74CC-C5B3-4A14-A92E-53593A6ED634}"/>
+    <hyperlink ref="A68" r:id="rId66" xr:uid="{292707FA-9363-4D5D-85B0-DE717207FB57}"/>
+    <hyperlink ref="A69" r:id="rId67" xr:uid="{762A6932-B76D-4288-AAA5-AD7B947816CD}"/>
+    <hyperlink ref="A70" r:id="rId68" xr:uid="{A7A1FE0D-E7F4-4EAE-9CF9-CAFF7CD89E4B}"/>
+    <hyperlink ref="A71" r:id="rId69" xr:uid="{390820E8-74CF-4356-A8B3-BCE3EF7CD95D}"/>
+    <hyperlink ref="A72" r:id="rId70" xr:uid="{8327DA18-AD6F-40E6-ACEE-D696E19D77BE}"/>
+    <hyperlink ref="A73" r:id="rId71" xr:uid="{FB7730C5-19E4-46CB-B430-BA67FB7A8BF6}"/>
+    <hyperlink ref="A74" r:id="rId72" xr:uid="{5C886BAE-5C7E-43DC-9F0F-6D2E48017393}"/>
+    <hyperlink ref="A75" r:id="rId73" xr:uid="{DD617D6F-76F1-4B6B-A91A-BD297C6E5B2F}"/>
+    <hyperlink ref="A76" r:id="rId74" xr:uid="{149414E2-2F48-42D0-A11E-07B59A54E26C}"/>
+    <hyperlink ref="A77" r:id="rId75" xr:uid="{93D0BD43-2609-492E-AD0E-DE9EAC41013B}"/>
+    <hyperlink ref="A78" r:id="rId76" xr:uid="{6AAE379F-5B4B-4BAC-A622-2C0B9A6D27C8}"/>
+    <hyperlink ref="A79" r:id="rId77" xr:uid="{8E61AF1B-D8B7-4E8E-A65E-A37974FCCEDE}"/>
+    <hyperlink ref="A80" r:id="rId78" xr:uid="{0D32D76B-A1CC-4E22-BFB0-1657FDF52326}"/>
+    <hyperlink ref="A81" r:id="rId79" xr:uid="{88E2535D-E2EA-4BB4-B2A8-61F8D7CC7094}"/>
+    <hyperlink ref="A82" r:id="rId80" xr:uid="{B60EF477-38A6-4A80-BF86-457AA885F7D9}"/>
+    <hyperlink ref="A2" r:id="rId81" xr:uid="{A57B20CD-6386-4B60-9944-587A675D840D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId95"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId82"/>
 </worksheet>
 </file>